--- a/src/main/resources/avocatsList.xlsx
+++ b/src/main/resources/avocatsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -80,25 +80,43 @@
     <t>6.63569549E8</t>
   </si>
   <si>
+    <t>kaoutar</t>
+  </si>
+  <si>
+    <t>teeest</t>
+  </si>
+  <si>
+    <t>adr</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>rdv</t>
+  </si>
+  <si>
+    <t>specialte</t>
+  </si>
+  <si>
+    <t>3.55015616E8</t>
+  </si>
+  <si>
+    <t>aatiq</t>
+  </si>
+  <si>
+    <t>looo</t>
+  </si>
+  <si>
+    <t>mpppp</t>
+  </si>
+  <si>
+    <t>lloo</t>
+  </si>
+  <si>
+    <t>0682154739</t>
+  </si>
+  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>teeest</t>
-  </si>
-  <si>
-    <t>adr</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>rdv</t>
-  </si>
-  <si>
-    <t>specialte</t>
-  </si>
-  <si>
-    <t>3.55015616E8</t>
   </si>
   <si>
     <t>kawtar</t>
@@ -164,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -216,13 +234,35 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
